--- a/biology/Zoologie/Carillonneur_huppé/Carillonneur_huppé.xlsx
+++ b/biology/Zoologie/Carillonneur_huppé/Carillonneur_huppé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carillonneur_hupp%C3%A9</t>
+          <t>Carillonneur_huppé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Oreoica gutturalis, Oreoica
 Le Carillonneur huppé (Oreoica gutturalis), unique représentant du genre Oreoica, est une espèce de passereaux de la famille Oreoicidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carillonneur_hupp%C3%A9</t>
+          <t>Carillonneur_huppé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est endémique de l'Australie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est endémique de l'Australie.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Carillonneur_hupp%C3%A9</t>
+          <t>Carillonneur_huppé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,12 +557,49 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Les travaux de Jønsson et al. (2008), Dumbacher et al. (2008), Norman et al. (2009) et Jønsson et al. (2010) montrent que le Carillonneur huppé n'appartient pas à la famille des Pachycephalidae dans laquelle il était placé jusque-là. Ces travaux montrent qu'il est un proche parent du Pitohui huppé (Ornorectes cristatus) et du Siffleur à nuque rousse (Aleadryas rufinucha)[1].
-L'étude phylogénique de Schodde &amp; Christidis (2014) vient confirmer les études précédentes, et le Congrès ornithologique international (classification 4.3, 2014) déplace cette espèce dans la nouvelle famille des Oreoicidae[2],[3].
-Sous-espèces
-D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Jønsson et al. (2008), Dumbacher et al. (2008), Norman et al. (2009) et Jønsson et al. (2010) montrent que le Carillonneur huppé n'appartient pas à la famille des Pachycephalidae dans laquelle il était placé jusque-là. Ces travaux montrent qu'il est un proche parent du Pitohui huppé (Ornorectes cristatus) et du Siffleur à nuque rousse (Aleadryas rufinucha).
+L'étude phylogénique de Schodde &amp; Christidis (2014) vient confirmer les études précédentes, et le Congrès ornithologique international (classification 4.3, 2014) déplace cette espèce dans la nouvelle famille des Oreoicidae,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Carillonneur_huppé</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Carillonneur_hupp%C3%A9</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des sous-espèces suivantes (ordre phylogénique) :
 Oreoica gutturalis pallescens Mathews, 1912.
 Oreoica gutturalis gutturalis (Vigors &amp; Horsfield, 1827) ;</t>
         </is>
